--- a/Analysis/verification/monotonicity_test/minions/mean_waiting_time/test_100_repetitions.xlsx
+++ b/Analysis/verification/monotonicity_test/minions/mean_waiting_time/test_100_repetitions.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -89,11 +89,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -120,6 +121,11 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -262,7 +268,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -336,6 +342,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -381,29 +388,6 @@
               </a:ln>
             </c:spPr>
           </c:errBars>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$K$426:$M$426</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="1"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>CI</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>StdDev</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Average</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$K$3</c:f>
@@ -452,6 +436,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -497,29 +482,6 @@
               </a:ln>
             </c:spPr>
           </c:errBars>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$K$426:$M$426</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="1"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>CI</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>StdDev</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Average</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$K$109</c:f>
@@ -568,6 +530,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -613,29 +576,6 @@
               </a:ln>
             </c:spPr>
           </c:errBars>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$K$426:$M$426</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="1"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>CI</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>StdDev</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Average</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$K$215</c:f>
@@ -684,6 +624,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -729,29 +670,6 @@
               </a:ln>
             </c:spPr>
           </c:errBars>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$K$426:$M$426</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="1"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>CI</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>StdDev</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Average</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$K$321</c:f>
@@ -800,6 +718,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -845,29 +764,6 @@
               </a:ln>
             </c:spPr>
           </c:errBars>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$K$426:$M$426</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="1"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>CI</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>StdDev</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Average</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$K$427</c:f>
@@ -883,11 +779,11 @@
         </c:ser>
         <c:gapWidth val="500"/>
         <c:overlap val="-100"/>
-        <c:axId val="3061285"/>
-        <c:axId val="14969817"/>
+        <c:axId val="25152049"/>
+        <c:axId val="36211641"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3061285"/>
+        <c:axId val="25152049"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -943,14 +839,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14969817"/>
+        <c:crossAx val="36211641"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14969817"/>
+        <c:axId val="36211641"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +889,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1015,7 +911,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3061285"/>
+        <c:crossAx val="25152049"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1066,7 +962,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -1084,9 +980,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>712440</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:colOff>709920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1094,8 +990,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13449600" y="1042560"/>
-        <a:ext cx="5753880" cy="3605400"/>
+        <a:off x="13465800" y="1042560"/>
+        <a:ext cx="5760720" cy="3246120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1115,11 +1011,11 @@
   </sheetPr>
   <dimension ref="A1:M526"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M427" activeCellId="0" sqref="M427"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.68"/>
   </cols>

--- a/Analysis/verification/monotonicity_test/minions/mean_waiting_time/test_100_repetitions.xlsx
+++ b/Analysis/verification/monotonicity_test/minions/mean_waiting_time/test_100_repetitions.xlsx
@@ -268,7 +268,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -303,6 +303,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.111101803763891"/>
+          <c:y val="0.15077550208789"/>
+          <c:w val="0.868878092366114"/>
+          <c:h val="0.634022668522569"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -779,11 +790,11 @@
         </c:ser>
         <c:gapWidth val="500"/>
         <c:overlap val="-100"/>
-        <c:axId val="25152049"/>
-        <c:axId val="36211641"/>
+        <c:axId val="86924865"/>
+        <c:axId val="80043274"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25152049"/>
+        <c:axId val="86924865"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -839,14 +850,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36211641"/>
+        <c:crossAx val="80043274"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36211641"/>
+        <c:axId val="80043274"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +887,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Mean Waiting Time E[W] [seconds]</a:t>
+                  <a:t>Mean Waiting Time E[W] [s]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -911,7 +922,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25152049"/>
+        <c:crossAx val="86924865"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -930,10 +941,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.249139710942877"/>
-          <c:y val="0.881977034448327"/>
-          <c:w val="0.575736720265282"/>
-          <c:h val="0.109335996005991"/>
+          <c:x val="0.0736583458982521"/>
+          <c:y val="0.881984489958242"/>
+          <c:w val="0.894622214776344"/>
+          <c:h val="0.109266255716842"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -979,10 +990,10 @@
       <xdr:rowOff>47520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>709920</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -990,8 +1001,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13465800" y="1042560"/>
-        <a:ext cx="5760720" cy="3246120"/>
+        <a:off x="13482360" y="1042560"/>
+        <a:ext cx="6446520" cy="3620880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1012,10 +1023,10 @@
   <dimension ref="A1:M526"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.68"/>
   </cols>
